--- a/docs/Statistik_Keketatan_Prodi_smmptn_2023.xlsx
+++ b/docs/Statistik_Keketatan_Prodi_smmptn_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02812ACE-A73E-4791-9B04-A5B887B99DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F93FC5-8509-4488-8F82-F9EE3243B240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$42</definedName>
   </definedNames>
@@ -337,6 +340,1012 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Worksheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>8881</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>KEDOKTERAN</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E2">
+            <v>3</v>
+          </cell>
+          <cell r="F2">
+            <v>192</v>
+          </cell>
+          <cell r="G2">
+            <v>192</v>
+          </cell>
+          <cell r="H2">
+            <v>384</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>1111</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>HUKUM</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E3">
+            <v>30</v>
+          </cell>
+          <cell r="F3">
+            <v>210</v>
+          </cell>
+          <cell r="G3">
+            <v>143</v>
+          </cell>
+          <cell r="H3">
+            <v>353</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5551</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>MANAJEMEN</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E4">
+            <v>9</v>
+          </cell>
+          <cell r="F4">
+            <v>191</v>
+          </cell>
+          <cell r="G4">
+            <v>137</v>
+          </cell>
+          <cell r="H4">
+            <v>328</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>6662</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>ILMU KOMUNIKASI</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E5">
+            <v>14</v>
+          </cell>
+          <cell r="F5">
+            <v>163</v>
+          </cell>
+          <cell r="G5">
+            <v>161</v>
+          </cell>
+          <cell r="H5">
+            <v>324</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>3333</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>TEKNIK INDUSTRI</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E6">
+            <v>8</v>
+          </cell>
+          <cell r="F6">
+            <v>157</v>
+          </cell>
+          <cell r="G6">
+            <v>122</v>
+          </cell>
+          <cell r="H6">
+            <v>279</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>5552</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>AKUNTANSI</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E7">
+            <v>9</v>
+          </cell>
+          <cell r="F7">
+            <v>112</v>
+          </cell>
+          <cell r="G7">
+            <v>107</v>
+          </cell>
+          <cell r="H7">
+            <v>219</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>3337</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>INFORMATIKA</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E8">
+            <v>6</v>
+          </cell>
+          <cell r="F8">
+            <v>139</v>
+          </cell>
+          <cell r="G8">
+            <v>77</v>
+          </cell>
+          <cell r="H8">
+            <v>216</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>6661</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>ADMINISTRASI PUBLIK</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E9">
+            <v>12</v>
+          </cell>
+          <cell r="F9">
+            <v>109</v>
+          </cell>
+          <cell r="G9">
+            <v>97</v>
+          </cell>
+          <cell r="H9">
+            <v>206</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>6670</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>ILMU PEMERINTAHAN</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E10">
+            <v>10</v>
+          </cell>
+          <cell r="F10">
+            <v>58</v>
+          </cell>
+          <cell r="G10">
+            <v>98</v>
+          </cell>
+          <cell r="H10">
+            <v>156</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>3336</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>TEKNIK SIPIL</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E11">
+            <v>8</v>
+          </cell>
+          <cell r="F11">
+            <v>92</v>
+          </cell>
+          <cell r="G11">
+            <v>52</v>
+          </cell>
+          <cell r="H11">
+            <v>144</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>8884</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>KEPERAWATAN</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E12">
+            <v>2</v>
+          </cell>
+          <cell r="F12">
+            <v>85</v>
+          </cell>
+          <cell r="G12">
+            <v>36</v>
+          </cell>
+          <cell r="H12">
+            <v>121</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>8882</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>GIZI</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E13">
+            <v>2</v>
+          </cell>
+          <cell r="F13">
+            <v>62</v>
+          </cell>
+          <cell r="G13">
+            <v>59</v>
+          </cell>
+          <cell r="H13">
+            <v>121</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>4441</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>AGRIBISNIS</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E14">
+            <v>14</v>
+          </cell>
+          <cell r="F14">
+            <v>52</v>
+          </cell>
+          <cell r="G14">
+            <v>67</v>
+          </cell>
+          <cell r="H14">
+            <v>119</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>3332</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>TEKNIK ELEKTRO</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E15">
+            <v>8</v>
+          </cell>
+          <cell r="F15">
+            <v>69</v>
+          </cell>
+          <cell r="G15">
+            <v>38</v>
+          </cell>
+          <cell r="H15">
+            <v>107</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>3334</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>TEKNIK METALURGI</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E16">
+            <v>8</v>
+          </cell>
+          <cell r="F16">
+            <v>60</v>
+          </cell>
+          <cell r="G16">
+            <v>40</v>
+          </cell>
+          <cell r="H16">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>4444</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>TEKNOLOGI PANGAN</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E17">
+            <v>8</v>
+          </cell>
+          <cell r="F17">
+            <v>54</v>
+          </cell>
+          <cell r="G17">
+            <v>45</v>
+          </cell>
+          <cell r="H17">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>3331</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>TEKNIK MESIN</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E18">
+            <v>8</v>
+          </cell>
+          <cell r="F18">
+            <v>41</v>
+          </cell>
+          <cell r="G18">
+            <v>47</v>
+          </cell>
+          <cell r="H18">
+            <v>88</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>2285</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>BIMBINGAN DAN KONSELING</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E19">
+            <v>4</v>
+          </cell>
+          <cell r="F19">
+            <v>37</v>
+          </cell>
+          <cell r="G19">
+            <v>47</v>
+          </cell>
+          <cell r="H19">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>3335</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>TEKNIK KIMIA</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E20">
+            <v>8</v>
+          </cell>
+          <cell r="F20">
+            <v>41</v>
+          </cell>
+          <cell r="G20">
+            <v>43</v>
+          </cell>
+          <cell r="H20">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>2223</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>PENDIDIKAN BAHASA INGGRIS</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E21">
+            <v>8</v>
+          </cell>
+          <cell r="F21">
+            <v>41</v>
+          </cell>
+          <cell r="G21">
+            <v>35</v>
+          </cell>
+          <cell r="H21">
+            <v>76</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>2227</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>PENDIDIKAN GURU SEKOLAH DASAR</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E22">
+            <v>6</v>
+          </cell>
+          <cell r="F22">
+            <v>45</v>
+          </cell>
+          <cell r="G22">
+            <v>29</v>
+          </cell>
+          <cell r="H22">
+            <v>74</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>5553</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>EKONOMI PEMBANGUNAN</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E23">
+            <v>6</v>
+          </cell>
+          <cell r="F23">
+            <v>18</v>
+          </cell>
+          <cell r="G23">
+            <v>52</v>
+          </cell>
+          <cell r="H23">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>4442</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>AGROEKOTEKNOLOGI</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E24">
+            <v>12</v>
+          </cell>
+          <cell r="F24">
+            <v>26</v>
+          </cell>
+          <cell r="G24">
+            <v>43</v>
+          </cell>
+          <cell r="H24">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>5554</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>EKONOMI SYARIAH</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E25">
+            <v>6</v>
+          </cell>
+          <cell r="F25">
+            <v>10</v>
+          </cell>
+          <cell r="G25">
+            <v>43</v>
+          </cell>
+          <cell r="H25">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>2222</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>PENDIDIKAN BAHASA INDONESIA</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E26">
+            <v>8</v>
+          </cell>
+          <cell r="F26">
+            <v>10</v>
+          </cell>
+          <cell r="G26">
+            <v>26</v>
+          </cell>
+          <cell r="H26">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>4443</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>ILMU PERIKANAN</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E27">
+            <v>10</v>
+          </cell>
+          <cell r="F27">
+            <v>9</v>
+          </cell>
+          <cell r="G27">
+            <v>20</v>
+          </cell>
+          <cell r="H27">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>2290</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>PENDIDIKAN SOSIOLOGI</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E28">
+            <v>4</v>
+          </cell>
+          <cell r="F28">
+            <v>5</v>
+          </cell>
+          <cell r="G28">
+            <v>23</v>
+          </cell>
+          <cell r="H28">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>4445</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>ILMU KELAUTAN</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E29">
+            <v>4</v>
+          </cell>
+          <cell r="F29">
+            <v>10</v>
+          </cell>
+          <cell r="G29">
+            <v>14</v>
+          </cell>
+          <cell r="H29">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>2224</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>PENDIDIKAN BIOLOGI</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E30">
+            <v>8</v>
+          </cell>
+          <cell r="F30">
+            <v>13</v>
+          </cell>
+          <cell r="G30">
+            <v>11</v>
+          </cell>
+          <cell r="H30">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>2225</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>PENDIDIKAN MATEMATIKA</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E31">
+            <v>8</v>
+          </cell>
+          <cell r="F31">
+            <v>10</v>
+          </cell>
+          <cell r="G31">
+            <v>12</v>
+          </cell>
+          <cell r="H31">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>2288</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>PENDIDIKAN SEJARAH</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E32">
+            <v>4</v>
+          </cell>
+          <cell r="F32">
+            <v>7</v>
+          </cell>
+          <cell r="G32">
+            <v>12</v>
+          </cell>
+          <cell r="H32">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>4446</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>PETERNAKAN</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>S2</v>
+          </cell>
+          <cell r="E33">
+            <v>2</v>
+          </cell>
+          <cell r="F33">
+            <v>7</v>
+          </cell>
+          <cell r="G33">
+            <v>12</v>
+          </cell>
+          <cell r="H33">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>8883</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>ILMU KEOLAHRAGAAN</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E34">
+            <v>2</v>
+          </cell>
+          <cell r="F34">
+            <v>9</v>
+          </cell>
+          <cell r="G34">
+            <v>9</v>
+          </cell>
+          <cell r="H34">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>2283</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>PENDIDIKAN VOKASIONAL TEKNIK ELEKTRO</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E35">
+            <v>4</v>
+          </cell>
+          <cell r="F35">
+            <v>9</v>
+          </cell>
+          <cell r="G35">
+            <v>7</v>
+          </cell>
+          <cell r="H35">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>2286</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E36">
+            <v>4</v>
+          </cell>
+          <cell r="F36">
+            <v>5</v>
+          </cell>
+          <cell r="G36">
+            <v>9</v>
+          </cell>
+          <cell r="H36">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>2228</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>PENDIDIKAN GURU PENDIDIKAN ANAK USIA DINI</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E37">
+            <v>6</v>
+          </cell>
+          <cell r="F37">
+            <v>3</v>
+          </cell>
+          <cell r="G37">
+            <v>9</v>
+          </cell>
+          <cell r="H37">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>2281</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>PENDIDIKAN IPA</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E38">
+            <v>4</v>
+          </cell>
+          <cell r="F38">
+            <v>5</v>
+          </cell>
+          <cell r="G38">
+            <v>7</v>
+          </cell>
+          <cell r="H38">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>2221</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>PENDIDIKAN NON FORMAL</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E39">
+            <v>6</v>
+          </cell>
+          <cell r="F39">
+            <v>5</v>
+          </cell>
+          <cell r="G39">
+            <v>5</v>
+          </cell>
+          <cell r="H39">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>2280</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>PENDIDIKAN FISIKA</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E40">
+            <v>4</v>
+          </cell>
+          <cell r="F40">
+            <v>4</v>
+          </cell>
+          <cell r="G40">
+            <v>4</v>
+          </cell>
+          <cell r="H40">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>2287</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>PENDIDIKAN KHUSUS</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E41">
+            <v>4</v>
+          </cell>
+          <cell r="F41">
+            <v>6</v>
+          </cell>
+          <cell r="G41">
+            <v>2</v>
+          </cell>
+          <cell r="H41">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>2282</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>PENDIDIKAN KIMIA</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E42">
+            <v>6</v>
+          </cell>
+          <cell r="F42">
+            <v>2</v>
+          </cell>
+          <cell r="G42">
+            <v>4</v>
+          </cell>
+          <cell r="H42">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>2284</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>PENDIDIKAN VOKASIONAL TEKNIK MESIN</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E43">
+            <v>4</v>
+          </cell>
+          <cell r="F43">
+            <v>2</v>
+          </cell>
+          <cell r="G43">
+            <v>3</v>
+          </cell>
+          <cell r="H43">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>2289</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>PENDIDIKAN SENI PERTUNJUKAN</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>S1</v>
+          </cell>
+          <cell r="E44">
+            <v>4</v>
+          </cell>
+          <cell r="F44">
+            <v>2</v>
+          </cell>
+          <cell r="G44">
+            <v>3</v>
+          </cell>
+          <cell r="H44">
+            <v>5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,8 +1638,8 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F2:F44"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,7 +1689,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>IF(A1="no",1,A1+1)</f>
+        <f t="shared" ref="A2:A44" si="0">IF(A1="no",1,A1+1)</f>
         <v>1</v>
       </c>
       <c r="B2">
@@ -693,6 +1702,7 @@
         <v>61</v>
       </c>
       <c r="E2" s="2">
+        <f>VLOOKUP(B2,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>384</v>
       </c>
       <c r="F2" s="2">
@@ -700,27 +1710,27 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <f>ROUND(F2/E2*100,1)</f>
+        <f t="shared" ref="G2:G44" si="1">ROUND(F2/E2*100,1)</f>
         <v>0.8</v>
       </c>
       <c r="H2" s="2">
         <v>192</v>
       </c>
       <c r="I2">
-        <f>ROUND(H2/E2*100,1)</f>
+        <f t="shared" ref="I2:I44" si="2">ROUND(H2/E2*100,1)</f>
         <v>50</v>
       </c>
       <c r="J2" s="2">
         <v>192</v>
       </c>
       <c r="K2">
-        <f>100-I2</f>
+        <f t="shared" ref="K2:K44" si="3">100-I2</f>
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>IF(A2="no",1,A2+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3">
@@ -733,6 +1743,7 @@
         <v>61</v>
       </c>
       <c r="E3" s="2">
+        <f>VLOOKUP(B3,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>121</v>
       </c>
       <c r="F3" s="2">
@@ -740,27 +1751,27 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <f>ROUND(F3/E3*100,1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="H3" s="2">
         <v>62</v>
       </c>
       <c r="I3">
-        <f>ROUND(H3/E3*100,1)</f>
+        <f t="shared" si="2"/>
         <v>51.2</v>
       </c>
       <c r="J3" s="2">
         <v>59</v>
       </c>
       <c r="K3">
-        <f>100-I3</f>
+        <f t="shared" si="3"/>
         <v>48.8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>IF(A3="no",1,A3+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4">
@@ -773,6 +1784,7 @@
         <v>61</v>
       </c>
       <c r="E4" s="2">
+        <f>VLOOKUP(B4,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>121</v>
       </c>
       <c r="F4" s="2">
@@ -780,27 +1792,27 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f>ROUND(F4/E4*100,1)</f>
+        <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
       <c r="H4" s="2">
         <v>85</v>
       </c>
       <c r="I4">
-        <f>ROUND(H4/E4*100,1)</f>
+        <f t="shared" si="2"/>
         <v>70.2</v>
       </c>
       <c r="J4" s="2">
         <v>36</v>
       </c>
       <c r="K4">
-        <f>100-I4</f>
+        <f t="shared" si="3"/>
         <v>29.799999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>IF(A4="no",1,A4+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -813,6 +1825,7 @@
         <v>61</v>
       </c>
       <c r="E5" s="2">
+        <f>VLOOKUP(B5,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>279</v>
       </c>
       <c r="F5" s="2">
@@ -820,27 +1833,27 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <f>ROUND(F5/E5*100,1)</f>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="H5" s="2">
         <v>157</v>
       </c>
       <c r="I5">
-        <f>ROUND(H5/E5*100,1)</f>
+        <f t="shared" si="2"/>
         <v>56.3</v>
       </c>
       <c r="J5" s="2">
         <v>122</v>
       </c>
       <c r="K5">
-        <f>100-I5</f>
+        <f t="shared" si="3"/>
         <v>43.7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>IF(A5="no",1,A5+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -853,6 +1866,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="2">
+        <f>VLOOKUP(B6,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
       <c r="F6" s="2">
@@ -860,27 +1874,27 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <f>ROUND(F6/E6*100,1)</f>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
       <c r="H6" s="2">
         <v>191</v>
       </c>
       <c r="I6">
-        <f>ROUND(H6/E6*100,1)</f>
+        <f t="shared" si="2"/>
         <v>58.2</v>
       </c>
       <c r="J6" s="2">
         <v>137</v>
       </c>
       <c r="K6">
-        <f>100-I6</f>
+        <f t="shared" si="3"/>
         <v>41.8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>IF(A6="no",1,A6+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -893,6 +1907,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="2">
+        <f>VLOOKUP(B7,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>216</v>
       </c>
       <c r="F7" s="2">
@@ -900,27 +1915,27 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <f>ROUND(F7/E7*100,1)</f>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
       <c r="H7" s="2">
         <v>139</v>
       </c>
       <c r="I7">
-        <f>ROUND(H7/E7*100,1)</f>
+        <f t="shared" si="2"/>
         <v>64.400000000000006</v>
       </c>
       <c r="J7" s="2">
         <v>77</v>
       </c>
       <c r="K7">
-        <f>100-I7</f>
+        <f t="shared" si="3"/>
         <v>35.599999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>IF(A7="no",1,A7+1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -933,6 +1948,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="2">
+        <f>VLOOKUP(B8,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
       <c r="F8" s="2">
@@ -940,27 +1956,27 @@
         <v>19</v>
       </c>
       <c r="G8">
-        <f>ROUND(F8/E8*100,1)</f>
+        <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
       <c r="H8" s="2">
         <v>163</v>
       </c>
       <c r="I8">
-        <f>ROUND(H8/E8*100,1)</f>
+        <f t="shared" si="2"/>
         <v>50.3</v>
       </c>
       <c r="J8" s="2">
         <v>161</v>
       </c>
       <c r="K8">
-        <f>100-I8</f>
+        <f t="shared" si="3"/>
         <v>49.7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>IF(A8="no",1,A8+1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -973,6 +1989,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="2">
+        <f>VLOOKUP(B9,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>219</v>
       </c>
       <c r="F9" s="2">
@@ -980,27 +1997,27 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <f>ROUND(F9/E9*100,1)</f>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="H9" s="2">
         <v>112</v>
       </c>
       <c r="I9">
-        <f>ROUND(H9/E9*100,1)</f>
+        <f t="shared" si="2"/>
         <v>51.1</v>
       </c>
       <c r="J9" s="2">
         <v>107</v>
       </c>
       <c r="K9">
-        <f>100-I9</f>
+        <f t="shared" si="3"/>
         <v>48.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>IF(A9="no",1,A9+1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -1013,6 +2030,7 @@
         <v>61</v>
       </c>
       <c r="E10" s="2">
+        <f>VLOOKUP(B10,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>144</v>
       </c>
       <c r="F10" s="2">
@@ -1020,27 +2038,27 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <f>ROUND(F10/E10*100,1)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
       <c r="H10" s="2">
         <v>92</v>
       </c>
       <c r="I10">
-        <f>ROUND(H10/E10*100,1)</f>
+        <f t="shared" si="2"/>
         <v>63.9</v>
       </c>
       <c r="J10" s="2">
         <v>52</v>
       </c>
       <c r="K10">
-        <f>100-I10</f>
+        <f t="shared" si="3"/>
         <v>36.1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>IF(A10="no",1,A10+1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11">
@@ -1053,6 +2071,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="2">
+        <f>VLOOKUP(B11,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>206</v>
       </c>
       <c r="F11" s="2">
@@ -1060,27 +2079,27 @@
         <v>17</v>
       </c>
       <c r="G11">
-        <f>ROUND(F11/E11*100,1)</f>
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="H11" s="2">
         <v>109</v>
       </c>
       <c r="I11">
-        <f>ROUND(H11/E11*100,1)</f>
+        <f t="shared" si="2"/>
         <v>52.9</v>
       </c>
       <c r="J11" s="2">
         <v>97</v>
       </c>
       <c r="K11">
-        <f>100-I11</f>
+        <f t="shared" si="3"/>
         <v>47.1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>IF(A11="no",1,A11+1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12">
@@ -1093,6 +2112,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="2">
+        <f>VLOOKUP(B12,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>156</v>
       </c>
       <c r="F12" s="2">
@@ -1100,27 +2120,27 @@
         <v>13</v>
       </c>
       <c r="G12">
-        <f>ROUND(F12/E12*100,1)</f>
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="H12" s="2">
         <v>58</v>
       </c>
       <c r="I12">
-        <f>ROUND(H12/E12*100,1)</f>
+        <f t="shared" si="2"/>
         <v>37.200000000000003</v>
       </c>
       <c r="J12" s="2">
         <v>98</v>
       </c>
       <c r="K12">
-        <f>100-I12</f>
+        <f t="shared" si="3"/>
         <v>62.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>IF(A12="no",1,A12+1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13">
@@ -1133,6 +2153,7 @@
         <v>61</v>
       </c>
       <c r="E13" s="2">
+        <f>VLOOKUP(B13,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
       <c r="F13" s="2">
@@ -1140,27 +2161,27 @@
         <v>7</v>
       </c>
       <c r="G13">
-        <f>ROUND(F13/E13*100,1)</f>
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="H13" s="2">
         <v>37</v>
       </c>
       <c r="I13">
-        <f>ROUND(H13/E13*100,1)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="J13" s="2">
         <v>47</v>
       </c>
       <c r="K13">
-        <f>100-I13</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>IF(A13="no",1,A13+1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14">
@@ -1173,6 +2194,7 @@
         <v>61</v>
       </c>
       <c r="E14" s="2">
+        <f>VLOOKUP(B14,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>107</v>
       </c>
       <c r="F14" s="2">
@@ -1180,27 +2202,27 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <f>ROUND(F14/E14*100,1)</f>
+        <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="H14" s="2">
         <v>69</v>
       </c>
       <c r="I14">
-        <f>ROUND(H14/E14*100,1)</f>
+        <f t="shared" si="2"/>
         <v>64.5</v>
       </c>
       <c r="J14" s="2">
         <v>38</v>
       </c>
       <c r="K14">
-        <f>100-I14</f>
+        <f t="shared" si="3"/>
         <v>35.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>IF(A14="no",1,A14+1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15">
@@ -1213,6 +2235,7 @@
         <v>61</v>
       </c>
       <c r="E15" s="2">
+        <f>VLOOKUP(B15,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
       <c r="F15" s="2">
@@ -1220,27 +2243,27 @@
         <v>37</v>
       </c>
       <c r="G15">
-        <f>ROUND(F15/E15*100,1)</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="H15" s="2">
         <v>210</v>
       </c>
       <c r="I15">
-        <f>ROUND(H15/E15*100,1)</f>
+        <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
       <c r="J15" s="2">
         <v>143</v>
       </c>
       <c r="K15">
-        <f>100-I15</f>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>IF(A15="no",1,A15+1)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16">
@@ -1253,6 +2276,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="2">
+        <f>VLOOKUP(B16,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>74</v>
       </c>
       <c r="F16" s="2">
@@ -1260,27 +2284,27 @@
         <v>8</v>
       </c>
       <c r="G16">
-        <f>ROUND(F16/E16*100,1)</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="H16" s="2">
         <v>45</v>
       </c>
       <c r="I16">
-        <f>ROUND(H16/E16*100,1)</f>
+        <f t="shared" si="2"/>
         <v>60.8</v>
       </c>
       <c r="J16" s="2">
         <v>29</v>
       </c>
       <c r="K16">
-        <f>100-I16</f>
+        <f t="shared" si="3"/>
         <v>39.200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>IF(A16="no",1,A16+1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17">
@@ -1293,6 +2317,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="2">
+        <f>VLOOKUP(B17,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>100</v>
       </c>
       <c r="F17" s="2">
@@ -1300,27 +2325,27 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <f>ROUND(F17/E17*100,1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H17" s="2">
         <v>60</v>
       </c>
       <c r="I17">
-        <f>ROUND(H17/E17*100,1)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="J17" s="2">
         <v>40</v>
       </c>
       <c r="K17">
-        <f>100-I17</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>IF(A17="no",1,A17+1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18">
@@ -1333,6 +2358,7 @@
         <v>61</v>
       </c>
       <c r="E18" s="2">
+        <f>VLOOKUP(B18,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>88</v>
       </c>
       <c r="F18" s="2">
@@ -1340,27 +2366,27 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <f>ROUND(F18/E18*100,1)</f>
+        <f t="shared" si="1"/>
         <v>11.4</v>
       </c>
       <c r="H18" s="2">
         <v>41</v>
       </c>
       <c r="I18">
-        <f>ROUND(H18/E18*100,1)</f>
+        <f t="shared" si="2"/>
         <v>46.6</v>
       </c>
       <c r="J18" s="2">
         <v>47</v>
       </c>
       <c r="K18">
-        <f>100-I18</f>
+        <f t="shared" si="3"/>
         <v>53.4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>IF(A18="no",1,A18+1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19">
@@ -1373,6 +2399,7 @@
         <v>61</v>
       </c>
       <c r="E19" s="2">
+        <f>VLOOKUP(B19,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>70</v>
       </c>
       <c r="F19" s="2">
@@ -1380,27 +2407,27 @@
         <v>8</v>
       </c>
       <c r="G19">
-        <f>ROUND(F19/E19*100,1)</f>
+        <f t="shared" si="1"/>
         <v>11.4</v>
       </c>
       <c r="H19" s="2">
         <v>18</v>
       </c>
       <c r="I19">
-        <f>ROUND(H19/E19*100,1)</f>
+        <f t="shared" si="2"/>
         <v>25.7</v>
       </c>
       <c r="J19" s="2">
         <v>52</v>
       </c>
       <c r="K19">
-        <f>100-I19</f>
+        <f t="shared" si="3"/>
         <v>74.3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>IF(A19="no",1,A19+1)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20">
@@ -1413,6 +2440,7 @@
         <v>61</v>
       </c>
       <c r="E20" s="2">
+        <f>VLOOKUP(B20,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>99</v>
       </c>
       <c r="F20" s="2">
@@ -1420,27 +2448,27 @@
         <v>12</v>
       </c>
       <c r="G20">
-        <f>ROUND(F20/E20*100,1)</f>
+        <f t="shared" si="1"/>
         <v>12.1</v>
       </c>
       <c r="H20" s="2">
         <v>54</v>
       </c>
       <c r="I20">
-        <f>ROUND(H20/E20*100,1)</f>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
       <c r="J20" s="2">
         <v>45</v>
       </c>
       <c r="K20">
-        <f>100-I20</f>
+        <f t="shared" si="3"/>
         <v>45.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>IF(A20="no",1,A20+1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21">
@@ -1453,6 +2481,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="2">
+        <f>VLOOKUP(B21,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
       <c r="F21" s="2">
@@ -1460,27 +2489,27 @@
         <v>11</v>
       </c>
       <c r="G21">
-        <f>ROUND(F21/E21*100,1)</f>
+        <f t="shared" si="1"/>
         <v>13.1</v>
       </c>
       <c r="H21" s="2">
         <v>41</v>
       </c>
       <c r="I21">
-        <f>ROUND(H21/E21*100,1)</f>
+        <f t="shared" si="2"/>
         <v>48.8</v>
       </c>
       <c r="J21" s="2">
         <v>43</v>
       </c>
       <c r="K21">
-        <f>100-I21</f>
+        <f t="shared" si="3"/>
         <v>51.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>IF(A21="no",1,A21+1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22">
@@ -1493,6 +2522,7 @@
         <v>61</v>
       </c>
       <c r="E22" s="2">
+        <f>VLOOKUP(B22,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>76</v>
       </c>
       <c r="F22" s="2">
@@ -1500,27 +2530,27 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <f>ROUND(F22/E22*100,1)</f>
+        <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
       <c r="H22" s="2">
         <v>41</v>
       </c>
       <c r="I22">
-        <f>ROUND(H22/E22*100,1)</f>
+        <f t="shared" si="2"/>
         <v>53.9</v>
       </c>
       <c r="J22" s="2">
         <v>35</v>
       </c>
       <c r="K22">
-        <f>100-I22</f>
+        <f t="shared" si="3"/>
         <v>46.1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>IF(A22="no",1,A22+1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23">
@@ -1533,6 +2563,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="2">
+        <f>VLOOKUP(B23,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>119</v>
       </c>
       <c r="F23" s="2">
@@ -1540,27 +2571,27 @@
         <v>18</v>
       </c>
       <c r="G23">
-        <f>ROUND(F23/E23*100,1)</f>
+        <f t="shared" si="1"/>
         <v>15.1</v>
       </c>
       <c r="H23" s="2">
         <v>52</v>
       </c>
       <c r="I23">
-        <f>ROUND(H23/E23*100,1)</f>
+        <f t="shared" si="2"/>
         <v>43.7</v>
       </c>
       <c r="J23" s="2">
         <v>67</v>
       </c>
       <c r="K23">
-        <f>100-I23</f>
+        <f t="shared" si="3"/>
         <v>56.3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>IF(A23="no",1,A23+1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24">
@@ -1573,6 +2604,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="2">
+        <f>VLOOKUP(B24,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>19</v>
       </c>
       <c r="F24" s="2">
@@ -1580,27 +2612,27 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <f>ROUND(F24/E24*100,1)</f>
+        <f t="shared" si="1"/>
         <v>15.8</v>
       </c>
       <c r="H24" s="2">
         <v>7</v>
       </c>
       <c r="I24">
-        <f>ROUND(H24/E24*100,1)</f>
+        <f t="shared" si="2"/>
         <v>36.799999999999997</v>
       </c>
       <c r="J24" s="2">
         <v>12</v>
       </c>
       <c r="K24">
-        <f>100-I24</f>
+        <f t="shared" si="3"/>
         <v>63.2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>IF(A24="no",1,A24+1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25">
@@ -1613,6 +2645,7 @@
         <v>61</v>
       </c>
       <c r="E25" s="2">
+        <f>VLOOKUP(B25,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>18</v>
       </c>
       <c r="F25" s="2">
@@ -1620,27 +2653,27 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <f>ROUND(F25/E25*100,1)</f>
+        <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
       <c r="H25" s="2">
         <v>9</v>
       </c>
       <c r="I25">
-        <f>ROUND(H25/E25*100,1)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J25" s="2">
         <v>9</v>
       </c>
       <c r="K25">
-        <f>100-I25</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>IF(A25="no",1,A25+1)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26">
@@ -1653,6 +2686,7 @@
         <v>61</v>
       </c>
       <c r="E26" s="2">
+        <f>VLOOKUP(B26,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>53</v>
       </c>
       <c r="F26" s="2">
@@ -1660,27 +2694,27 @@
         <v>9</v>
       </c>
       <c r="G26">
-        <f>ROUND(F26/E26*100,1)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="H26" s="2">
         <v>10</v>
       </c>
       <c r="I26">
-        <f>ROUND(H26/E26*100,1)</f>
+        <f t="shared" si="2"/>
         <v>18.899999999999999</v>
       </c>
       <c r="J26" s="2">
         <v>43</v>
       </c>
       <c r="K26">
-        <f>100-I26</f>
+        <f t="shared" si="3"/>
         <v>81.099999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>IF(A26="no",1,A26+1)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27">
@@ -1693,6 +2727,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="2">
+        <f>VLOOKUP(B27,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>28</v>
       </c>
       <c r="F27" s="2">
@@ -1700,27 +2735,27 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <f>ROUND(F27/E27*100,1)</f>
+        <f t="shared" si="1"/>
         <v>17.899999999999999</v>
       </c>
       <c r="H27" s="2">
         <v>5</v>
       </c>
       <c r="I27">
-        <f>ROUND(H27/E27*100,1)</f>
+        <f t="shared" si="2"/>
         <v>17.899999999999999</v>
       </c>
       <c r="J27" s="2">
         <v>23</v>
       </c>
       <c r="K27">
-        <f>100-I27</f>
+        <f t="shared" si="3"/>
         <v>82.1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>IF(A27="no",1,A27+1)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28">
@@ -1733,6 +2768,7 @@
         <v>61</v>
       </c>
       <c r="E28" s="2">
+        <f>VLOOKUP(B28,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>19</v>
       </c>
       <c r="F28" s="2">
@@ -1740,27 +2776,27 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <f>ROUND(F28/E28*100,1)</f>
+        <f t="shared" si="1"/>
         <v>26.3</v>
       </c>
       <c r="H28" s="2">
         <v>7</v>
       </c>
       <c r="I28">
-        <f>ROUND(H28/E28*100,1)</f>
+        <f t="shared" si="2"/>
         <v>36.799999999999997</v>
       </c>
       <c r="J28" s="2">
         <v>12</v>
       </c>
       <c r="K28">
-        <f>100-I28</f>
+        <f t="shared" si="3"/>
         <v>63.2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>IF(A28="no",1,A28+1)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29">
@@ -1773,6 +2809,7 @@
         <v>61</v>
       </c>
       <c r="E29" s="2">
+        <f>VLOOKUP(B29,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
       <c r="F29" s="2">
@@ -1780,27 +2817,27 @@
         <v>19</v>
       </c>
       <c r="G29">
-        <f>ROUND(F29/E29*100,1)</f>
+        <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
       <c r="H29" s="2">
         <v>26</v>
       </c>
       <c r="I29">
-        <f>ROUND(H29/E29*100,1)</f>
+        <f t="shared" si="2"/>
         <v>37.700000000000003</v>
       </c>
       <c r="J29" s="2">
         <v>43</v>
       </c>
       <c r="K29">
-        <f>100-I29</f>
+        <f t="shared" si="3"/>
         <v>62.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>IF(A29="no",1,A29+1)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30">
@@ -1813,6 +2850,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2">
+        <f>VLOOKUP(B30,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>36</v>
       </c>
       <c r="F30" s="2">
@@ -1820,27 +2858,27 @@
         <v>11</v>
       </c>
       <c r="G30">
-        <f>ROUND(F30/E30*100,1)</f>
+        <f t="shared" si="1"/>
         <v>30.6</v>
       </c>
       <c r="H30" s="2">
         <v>10</v>
       </c>
       <c r="I30">
-        <f>ROUND(H30/E30*100,1)</f>
+        <f t="shared" si="2"/>
         <v>27.8</v>
       </c>
       <c r="J30" s="2">
         <v>26</v>
       </c>
       <c r="K30">
-        <f>100-I30</f>
+        <f t="shared" si="3"/>
         <v>72.2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>IF(A30="no",1,A30+1)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31">
@@ -1853,6 +2891,7 @@
         <v>61</v>
       </c>
       <c r="E31" s="2">
+        <f>VLOOKUP(B31,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
       <c r="F31" s="2">
@@ -1860,27 +2899,27 @@
         <v>8</v>
       </c>
       <c r="G31">
-        <f>ROUND(F31/E31*100,1)</f>
+        <f t="shared" si="1"/>
         <v>33.299999999999997</v>
       </c>
       <c r="H31" s="2">
         <v>10</v>
       </c>
       <c r="I31">
-        <f>ROUND(H31/E31*100,1)</f>
+        <f t="shared" si="2"/>
         <v>41.7</v>
       </c>
       <c r="J31" s="2">
         <v>14</v>
       </c>
       <c r="K31">
-        <f>100-I31</f>
+        <f t="shared" si="3"/>
         <v>58.3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>IF(A31="no",1,A31+1)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32">
@@ -1893,6 +2932,7 @@
         <v>61</v>
       </c>
       <c r="E32" s="2">
+        <f>VLOOKUP(B32,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>14</v>
       </c>
       <c r="F32" s="2">
@@ -1900,27 +2940,27 @@
         <v>5</v>
       </c>
       <c r="G32">
-        <f>ROUND(F32/E32*100,1)</f>
+        <f t="shared" si="1"/>
         <v>35.700000000000003</v>
       </c>
       <c r="H32" s="2">
         <v>5</v>
       </c>
       <c r="I32">
-        <f>ROUND(H32/E32*100,1)</f>
+        <f t="shared" si="2"/>
         <v>35.700000000000003</v>
       </c>
       <c r="J32" s="2">
         <v>9</v>
       </c>
       <c r="K32">
-        <f>100-I32</f>
+        <f t="shared" si="3"/>
         <v>64.3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>IF(A32="no",1,A32+1)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33">
@@ -1933,6 +2973,7 @@
         <v>61</v>
       </c>
       <c r="E33" s="2">
+        <f>VLOOKUP(B33,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F33" s="2">
@@ -1940,27 +2981,27 @@
         <v>6</v>
       </c>
       <c r="G33">
-        <f>ROUND(F33/E33*100,1)</f>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="H33" s="2">
         <v>9</v>
       </c>
       <c r="I33">
-        <f>ROUND(H33/E33*100,1)</f>
+        <f t="shared" si="2"/>
         <v>56.3</v>
       </c>
       <c r="J33" s="2">
         <v>7</v>
       </c>
       <c r="K33">
-        <f>100-I33</f>
+        <f t="shared" si="3"/>
         <v>43.7</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>IF(A33="no",1,A33+1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34">
@@ -1973,6 +3014,7 @@
         <v>61</v>
       </c>
       <c r="E34" s="2">
+        <f>VLOOKUP(B34,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>10</v>
       </c>
       <c r="F34" s="2">
@@ -1980,27 +3022,27 @@
         <v>4</v>
       </c>
       <c r="G34">
-        <f>ROUND(F34/E34*100,1)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H34" s="2">
         <v>5</v>
       </c>
       <c r="I34">
-        <f>ROUND(H34/E34*100,1)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J34" s="2">
         <v>5</v>
       </c>
       <c r="K34">
-        <f>100-I34</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>IF(A34="no",1,A34+1)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35">
@@ -2013,6 +3055,7 @@
         <v>61</v>
       </c>
       <c r="E35" s="2">
+        <f>VLOOKUP(B35,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
       <c r="F35" s="2">
@@ -2020,27 +3063,27 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <f>ROUND(F35/E35*100,1)</f>
+        <f t="shared" si="1"/>
         <v>41.7</v>
       </c>
       <c r="H35" s="2">
         <v>5</v>
       </c>
       <c r="I35">
-        <f>ROUND(H35/E35*100,1)</f>
+        <f t="shared" si="2"/>
         <v>41.7</v>
       </c>
       <c r="J35" s="2">
         <v>7</v>
       </c>
       <c r="K35">
-        <f>100-I35</f>
+        <f t="shared" si="3"/>
         <v>58.3</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>IF(A35="no",1,A35+1)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36">
@@ -2053,6 +3096,7 @@
         <v>61</v>
       </c>
       <c r="E36" s="2">
+        <f>VLOOKUP(B36,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>22</v>
       </c>
       <c r="F36" s="2">
@@ -2060,27 +3104,27 @@
         <v>11</v>
       </c>
       <c r="G36">
-        <f>ROUND(F36/E36*100,1)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H36" s="2">
         <v>10</v>
       </c>
       <c r="I36">
-        <f>ROUND(H36/E36*100,1)</f>
+        <f t="shared" si="2"/>
         <v>45.5</v>
       </c>
       <c r="J36" s="2">
         <v>12</v>
       </c>
       <c r="K36">
-        <f>100-I36</f>
+        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>IF(A36="no",1,A36+1)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37">
@@ -2093,6 +3137,7 @@
         <v>61</v>
       </c>
       <c r="E37" s="2">
+        <f>VLOOKUP(B37,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>29</v>
       </c>
       <c r="F37" s="2">
@@ -2100,27 +3145,27 @@
         <v>15</v>
       </c>
       <c r="G37">
-        <f>ROUND(F37/E37*100,1)</f>
+        <f t="shared" si="1"/>
         <v>51.7</v>
       </c>
       <c r="H37" s="2">
         <v>9</v>
       </c>
       <c r="I37">
-        <f>ROUND(H37/E37*100,1)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="J37" s="2">
         <v>20</v>
       </c>
       <c r="K37">
-        <f>100-I37</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>IF(A37="no",1,A37+1)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38">
@@ -2133,6 +3178,7 @@
         <v>61</v>
       </c>
       <c r="E38" s="2">
+        <f>VLOOKUP(B38,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
       <c r="F38" s="2">
@@ -2140,27 +3186,27 @@
         <v>13</v>
       </c>
       <c r="G38">
-        <f>ROUND(F38/E38*100,1)</f>
+        <f t="shared" si="1"/>
         <v>54.2</v>
       </c>
       <c r="H38" s="2">
         <v>13</v>
       </c>
       <c r="I38">
-        <f>ROUND(H38/E38*100,1)</f>
+        <f t="shared" si="2"/>
         <v>54.2</v>
       </c>
       <c r="J38" s="2">
         <v>11</v>
       </c>
       <c r="K38">
-        <f>100-I38</f>
+        <f t="shared" si="3"/>
         <v>45.8</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>IF(A38="no",1,A38+1)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39">
@@ -2172,7 +3218,8 @@
       <c r="D39" t="s">
         <v>61</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
+        <f>VLOOKUP(B39,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
@@ -2180,27 +3227,27 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <f>ROUND(F39/E39*100,1)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <f>ROUND(H39/E39*100,1)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="J39">
         <v>3</v>
       </c>
       <c r="K39">
-        <f>100-I39</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>IF(A39="no",1,A39+1)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40">
@@ -2213,6 +3260,7 @@
         <v>61</v>
       </c>
       <c r="E40" s="2">
+        <f>VLOOKUP(B40,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F40" s="2">
@@ -2220,27 +3268,27 @@
         <v>5</v>
       </c>
       <c r="G40">
-        <f>ROUND(F40/E40*100,1)</f>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="H40" s="2">
         <v>4</v>
       </c>
       <c r="I40">
-        <f>ROUND(H40/E40*100,1)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J40" s="2">
         <v>4</v>
       </c>
       <c r="K40">
-        <f>100-I40</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>IF(A40="no",1,A40+1)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41">
@@ -2253,6 +3301,7 @@
         <v>61</v>
       </c>
       <c r="E41" s="2">
+        <f>VLOOKUP(B41,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>6</v>
       </c>
       <c r="F41" s="2">
@@ -2260,27 +3309,27 @@
         <v>4</v>
       </c>
       <c r="G41">
-        <f>ROUND(F41/E41*100,1)</f>
+        <f t="shared" si="1"/>
         <v>66.7</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
       </c>
       <c r="I41">
-        <f>ROUND(H41/E41*100,1)</f>
+        <f t="shared" si="2"/>
         <v>33.299999999999997</v>
       </c>
       <c r="J41" s="2">
         <v>4</v>
       </c>
       <c r="K41">
-        <f>100-I41</f>
+        <f t="shared" si="3"/>
         <v>66.7</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f>IF(A41="no",1,A41+1)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42">
@@ -2293,6 +3342,7 @@
         <v>61</v>
       </c>
       <c r="E42" s="2">
+        <f>VLOOKUP(B42,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
       <c r="F42" s="2">
@@ -2300,27 +3350,27 @@
         <v>9</v>
       </c>
       <c r="G42">
-        <f>ROUND(F42/E42*100,1)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="H42" s="2">
         <v>3</v>
       </c>
       <c r="I42">
-        <f>ROUND(H42/E42*100,1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J42" s="2">
         <v>9</v>
       </c>
       <c r="K42">
-        <f>100-I42</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f>IF(A42="no",1,A42+1)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43">
@@ -2333,6 +3383,7 @@
         <v>61</v>
       </c>
       <c r="E43" s="2">
+        <f>VLOOKUP(B43,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F43" s="2">
@@ -2340,27 +3391,27 @@
         <v>6</v>
       </c>
       <c r="G43">
-        <f>ROUND(F43/E43*100,1)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="H43" s="2">
         <v>6</v>
       </c>
       <c r="I43">
-        <f>ROUND(H43/E43*100,1)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
       </c>
       <c r="K43">
-        <f>100-I43</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f>IF(A43="no",1,A43+1)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44">
@@ -2372,7 +3423,8 @@
       <c r="D44" t="s">
         <v>61</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
+        <f>VLOOKUP(B44,[1]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>5</v>
       </c>
       <c r="F44" s="2">
@@ -2380,21 +3432,21 @@
         <v>5</v>
       </c>
       <c r="G44">
-        <f>ROUND(F44/E44*100,1)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <f>ROUND(H44/E44*100,1)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="J44">
         <v>3</v>
       </c>
       <c r="K44">
-        <f>100-I44</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2413,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BC74FA-A2F9-4A80-B232-AFE2F4B99241}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
